--- a/linearization_heuristic_dyn_models/linearization_heuristic_results_91_days.xlsx
+++ b/linearization_heuristic_dyn_models/linearization_heuristic_results_91_days.xlsx
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>54084.76486566487</v>
+        <v>49628.60690140428</v>
       </c>
       <c r="C2" t="n">
         <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>45891509927.26395</v>
+        <v>45757427301.13125</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         <v>2000</v>
       </c>
       <c r="G2" t="n">
-        <v>40029587347.4139</v>
+        <v>40250401022.62417</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -522,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>54641.68460015364</v>
+        <v>50154.90453972395</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>45883240589.59354</v>
+        <v>45749326080.48063</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
         <v>2000</v>
       </c>
       <c r="G3" t="n">
-        <v>38485171822.28607</v>
+        <v>38722355234.40031</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -558,13 +558,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>60653.19807690499</v>
+        <v>54883.35478249052</v>
       </c>
       <c r="C4" t="n">
         <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>45890849206.90467</v>
+        <v>45751322659.84856</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         <v>2000</v>
       </c>
       <c r="G4" t="n">
-        <v>40006023764.77507</v>
+        <v>40211298199.30566</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -594,13 +594,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>61211.05207144045</v>
+        <v>55477.87105312177</v>
       </c>
       <c r="C5" t="n">
         <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>45881803707.06313</v>
+        <v>45742452234.75478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         <v>2000</v>
       </c>
       <c r="G5" t="n">
-        <v>38383139267.40864</v>
+        <v>38605788615.71039</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47471.7228203039</v>
+        <v>43729.98641555249</v>
       </c>
       <c r="C6" t="n">
         <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>39422166629.8898</v>
+        <v>44563079493.53232</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         <v>2000</v>
       </c>
       <c r="G6" t="n">
-        <v>-19174645060.56105</v>
+        <v>-9866133179.838198</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -666,13 +666,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>47937.94789467059</v>
+        <v>44149.44968066624</v>
       </c>
       <c r="C7" t="n">
         <v>0.5</v>
       </c>
       <c r="D7" t="n">
-        <v>39413282730.98871</v>
+        <v>44555183856.1448</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>2000</v>
       </c>
       <c r="G7" t="n">
-        <v>-20707770089.11948</v>
+        <v>-11293786123.58261</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -702,13 +702,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>46861.39730888815</v>
+        <v>43776.79034003732</v>
       </c>
       <c r="C8" t="n">
         <v>0.5</v>
       </c>
       <c r="D8" t="n">
-        <v>39062535180.94246</v>
+        <v>44691000141.40578</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>2000</v>
       </c>
       <c r="G8" t="n">
-        <v>-18812896678.51993</v>
+        <v>-9807838472.397394</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -738,13 +738,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>47325.9511962469</v>
+        <v>44199.50623185693</v>
       </c>
       <c r="C9" t="n">
         <v>0.5</v>
       </c>
       <c r="D9" t="n">
-        <v>39053747872.23233</v>
+        <v>44683170051.29977</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>2000</v>
       </c>
       <c r="G9" t="n">
-        <v>-20340021305.6512</v>
+        <v>-11250772566.76314</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
